--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MLDesignAl\TheFinal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C60415-B911-4944-861D-6C4F15246CA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F56AC48-C1D9-4AF0-8F78-89438BD9D8F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33240" yWindow="3075" windowWidth="22140" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36405" yWindow="2295" windowWidth="19320" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
   <si>
     <t>成分-UTS（所有可用数据）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,6 +64,10 @@
   </si>
   <si>
     <t>MAPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成分-UTS（铸铝）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -112,10 +116,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -398,22 +402,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -423,76 +427,147 @@
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>0.6472</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>0.1865</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>0.70660000000000001</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>0.15959999999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.51580000000000004</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.16589999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>0.64259999999999995</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>0.18060000000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.69820000000000004</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.13730000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>0.74329999999999996</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>0.15529999999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.19689999999999999</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.2029</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>0.71550000000000002</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>0.16450000000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.74329999999999996</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.15529999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>0.72260000000000002</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>0.15579999999999999</v>
       </c>
+      <c r="D8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.71550000000000002</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.16450000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.72260000000000002</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.15579999999999999</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D2:F2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MLDesignAl\TheFinal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F56AC48-C1D9-4AF0-8F78-89438BD9D8F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7F0AD9-9C7B-4ABA-98E6-20DD88136079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36405" yWindow="2295" windowWidth="19320" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37500" yWindow="2565" windowWidth="19320" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="13">
   <si>
     <t>成分-UTS（所有可用数据）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,6 +68,14 @@
   </si>
   <si>
     <t>成分-UTS（铸铝）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成分-UTS（变形）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成分工艺-UTS（所有）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -91,12 +99,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -111,7 +125,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -120,6 +134,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -402,22 +419,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -433,7 +450,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -452,9 +469,14 @@
       <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="G3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2">
@@ -472,8 +494,22 @@
       <c r="F4" s="2">
         <v>0.16589999999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -483,7 +519,7 @@
       <c r="C5" s="2">
         <v>0.18060000000000001</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="2">
@@ -492,9 +528,23 @@
       <c r="F5" s="2">
         <v>0.13730000000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="G5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="2">
@@ -512,9 +562,23 @@
       <c r="F6" s="2">
         <v>0.2029</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="G6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.69410000000000005</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.16189999999999999</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="2">
@@ -523,18 +587,32 @@
       <c r="C7" s="2">
         <v>0.16450000000000001</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="2">
-        <v>0.74329999999999996</v>
+        <v>0.64480000000000004</v>
       </c>
       <c r="F7" s="2">
-        <v>0.15529999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+        <v>0.1472</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0.69169999999999998</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0.12959999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="2">
@@ -543,31 +621,96 @@
       <c r="C8" s="2">
         <v>0.15579999999999999</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="2">
-        <v>0.71550000000000002</v>
+        <v>0.64849999999999997</v>
       </c>
       <c r="F8" s="2">
-        <v>0.16450000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D9" s="1" t="s">
+        <v>0.15160000000000001</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.15529999999999999</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D9" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="2">
-        <v>0.72260000000000002</v>
+        <v>0.68830000000000002</v>
       </c>
       <c r="F9" s="2">
-        <v>0.15579999999999999</v>
+        <v>0.13769999999999999</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.71460000000000001</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0.16039999999999999</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0.8397</v>
+      </c>
+      <c r="L9" s="2">
+        <v>9.74E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.71779999999999999</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0.15479999999999999</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0.80569999999999997</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0.1012</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0.82469999999999999</v>
+      </c>
+      <c r="L11" s="2">
+        <v>9.9900000000000003E-2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="J4:L4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MLDesignAl\TheFinal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7F0AD9-9C7B-4ABA-98E6-20DD88136079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B47FB7-C32D-47A2-AB4F-44D1659F25D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37500" yWindow="2565" windowWidth="19320" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35580" yWindow="1635" windowWidth="19320" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,11 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="13">
-  <si>
-    <t>成分-UTS（所有可用数据）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="20">
   <si>
     <t>模型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,6 +72,38 @@
   </si>
   <si>
     <t>成分工艺-UTS（所有）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成分El-UTS（所有）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成分工艺El-UTS（所有）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XGB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LGBM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成分-UTS（所有可用数据，部分元素）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成分-UTS（所有可用数据，全部元素）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成分-EL（所有可用数据，全部元素）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成分工艺-EL（所有）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -83,7 +111,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,6 +124,13 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -122,10 +157,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -133,14 +171,18 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -419,40 +461,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="18.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="B3" s="2">
         <v>0.6472</v>
@@ -461,23 +506,23 @@
         <v>0.1865</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>3</v>
+      <c r="G3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="B4" s="2">
         <v>0.70660000000000001</v>
@@ -486,7 +531,7 @@
         <v>0.15959999999999999</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" s="2">
         <v>0.51580000000000004</v>
@@ -495,23 +540,23 @@
         <v>0.16589999999999999</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2">
         <v>0.64259999999999995</v>
@@ -519,8 +564,8 @@
       <c r="C5" s="2">
         <v>0.18060000000000001</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>3</v>
+      <c r="D5" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="E5" s="2">
         <v>0.69820000000000004</v>
@@ -529,23 +574,28 @@
         <v>0.13730000000000001</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>5</v>
+      <c r="M5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="B6" s="2">
         <v>0.74329999999999996</v>
@@ -554,7 +604,7 @@
         <v>0.15529999999999999</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E6" s="2">
         <v>0.19689999999999999</v>
@@ -562,8 +612,8 @@
       <c r="F6" s="2">
         <v>0.2029</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>3</v>
+      <c r="G6" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="H6" s="2">
         <v>0.69410000000000005</v>
@@ -572,14 +622,28 @@
         <v>0.16189999999999999</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>6</v>
+      <c r="M6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="B7" s="2">
         <v>0.71550000000000002</v>
@@ -587,8 +651,8 @@
       <c r="C7" s="2">
         <v>0.16450000000000001</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>5</v>
+      <c r="D7" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E7" s="2">
         <v>0.64480000000000004</v>
@@ -597,12 +661,12 @@
         <v>0.1472</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
-      <c r="J7" s="4" t="s">
-        <v>3</v>
+      <c r="J7" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="K7" s="2">
         <v>0.69169999999999998</v>
@@ -610,10 +674,24 @@
       <c r="L7" s="2">
         <v>0.12959999999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="M7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="B8" s="2">
         <v>0.72260000000000002</v>
@@ -621,8 +699,8 @@
       <c r="C8" s="2">
         <v>0.15579999999999999</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>6</v>
+      <c r="D8" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E8" s="2">
         <v>0.64849999999999997</v>
@@ -630,8 +708,8 @@
       <c r="F8" s="2">
         <v>0.15160000000000001</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>5</v>
+      <c r="G8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H8" s="2">
         <v>0.72699999999999998</v>
@@ -640,14 +718,33 @@
         <v>0.15529999999999999</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D9" s="4" t="s">
-        <v>7</v>
+      <c r="M8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0.71250000000000002</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0.1467</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="E9" s="2">
         <v>0.68830000000000002</v>
@@ -655,8 +752,8 @@
       <c r="F9" s="2">
         <v>0.13769999999999999</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>6</v>
+      <c r="G9" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H9" s="2">
         <v>0.71460000000000001</v>
@@ -664,8 +761,8 @@
       <c r="I9" s="2">
         <v>0.16039999999999999</v>
       </c>
-      <c r="J9" s="4" t="s">
-        <v>5</v>
+      <c r="J9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K9" s="2">
         <v>0.8397</v>
@@ -673,10 +770,33 @@
       <c r="L9" s="2">
         <v>9.74E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G10" s="4" t="s">
-        <v>7</v>
+      <c r="M9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0.74339999999999995</v>
+      </c>
+      <c r="R9" s="2">
+        <v>0.12230000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.73509999999999998</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.15970000000000001</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="H10" s="2">
         <v>0.71779999999999999</v>
@@ -684,8 +804,8 @@
       <c r="I10" s="2">
         <v>0.15479999999999999</v>
       </c>
-      <c r="J10" s="4" t="s">
-        <v>6</v>
+      <c r="J10" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K10" s="2">
         <v>0.80569999999999997</v>
@@ -693,10 +813,33 @@
       <c r="L10" s="2">
         <v>0.1012</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J11" s="4" t="s">
-        <v>7</v>
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0.77349999999999997</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0.13220000000000001</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.73549999999999993</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.15770000000000001</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="K11" s="2">
         <v>0.82469999999999999</v>
@@ -704,13 +847,265 @@
       <c r="L11" s="2">
         <v>9.9900000000000003E-2</v>
       </c>
+      <c r="M11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0.72909999999999997</v>
+      </c>
+      <c r="O11" s="2">
+        <v>0.14419999999999999</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>0.89949999999999997</v>
+      </c>
+      <c r="R11" s="2">
+        <v>8.7099999999999997E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0.80249999999999999</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0.1217</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>0.86619999999999997</v>
+      </c>
+      <c r="R12" s="2">
+        <v>9.0800000000000006E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="P13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>0.88239999999999996</v>
+      </c>
+      <c r="R13" s="2">
+        <v>8.8800000000000004E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>0.92330000000000001</v>
+      </c>
+      <c r="R14" s="2">
+        <v>7.8E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2">
+        <v>8.09E-2</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.55149999999999999</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>0.91480000000000006</v>
+      </c>
+      <c r="R15" s="2">
+        <v>7.9199999999999993E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="2">
+        <v>-0.50860000000000005</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.45879999999999999</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.21510000000000001</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.34210000000000002</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.45660000000000001</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.317</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.33789999999999998</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.28170000000000001</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K19" s="2">
+        <v>-0.41770000000000002</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0.47560000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.31819999999999998</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.29189999999999999</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K20" s="2">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0.42520000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.4647</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.30549999999999999</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="2">
+        <v>0.6905</v>
+      </c>
+      <c r="L21" s="2">
+        <v>0.37390000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.44840000000000002</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.28710000000000002</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0.57430000000000003</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0.45300000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="9">
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="P6:R6"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="J4:L4"/>
+    <mergeCell ref="M5:O5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MLDesignAl\TheFinal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MLandAl\TheFinal-main\TheFinal-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B47FB7-C32D-47A2-AB4F-44D1659F25D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE61230A-FFAB-468D-8BBB-5081AF450D78}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35580" yWindow="1635" windowWidth="19320" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -463,23 +463,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -495,7 +495,7 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -520,7 +520,7 @@
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -554,7 +554,7 @@
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -593,7 +593,7 @@
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -641,7 +641,7 @@
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -689,7 +689,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -737,7 +737,7 @@
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>17</v>
       </c>
@@ -785,7 +785,7 @@
         <v>0.12230000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>4</v>
       </c>
@@ -828,7 +828,7 @@
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
@@ -866,7 +866,7 @@
         <v>8.7099999999999997E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="M12" s="3" t="s">
         <v>6</v>
       </c>
@@ -886,7 +886,7 @@
         <v>9.0800000000000006E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>18</v>
       </c>
@@ -902,7 +902,7 @@
         <v>8.8800000000000004E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -922,7 +922,7 @@
         <v>7.8E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
@@ -942,7 +942,7 @@
         <v>7.9199999999999993E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
@@ -958,7 +958,7 @@
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
@@ -978,7 +978,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>4</v>
       </c>
@@ -994,7 +994,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>5</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>0.47560000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>6</v>
       </c>
@@ -1034,7 +1034,7 @@
         <v>0.42520000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>14</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>0.37390000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>15</v>
       </c>
@@ -1074,26 +1074,38 @@
         <v>0.45300000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J23" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K23" s="2">
+        <v>0.61519999999999997</v>
+      </c>
+      <c r="L23" s="2">
+        <v>0.39129999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J24" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K24" s="2">
+        <v>0.7157</v>
+      </c>
+      <c r="L24" s="2">
+        <v>0.35060000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J25" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
+      <c r="K25" s="2">
+        <v>0.73939999999999995</v>
+      </c>
+      <c r="L25" s="2">
+        <v>0.3281</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1109,5 +1121,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MLandAl\TheFinal-main\TheFinal-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MLDesignAl\TheFinal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE61230A-FFAB-468D-8BBB-5081AF450D78}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D585CE0-70DB-4859-8D1C-38E2ED266E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35580" yWindow="1635" windowWidth="19320" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31395" yWindow="255" windowWidth="25530" windowHeight="14415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="23">
   <si>
     <t>模型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,6 +104,18 @@
   </si>
   <si>
     <t>成分工艺-EL（所有）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成分工艺UTS-EL（所有）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成分工艺-UTS（仅用“成分工艺El-UTS”中的数据）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成分工艺-UTS（筛选后-10%）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -111,7 +123,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,6 +141,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -163,7 +182,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -175,6 +194,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -461,25 +483,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:AA33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" customWidth="1"/>
+    <col min="4" max="4" width="1.77734375" customWidth="1"/>
+    <col min="8" max="8" width="1.77734375" customWidth="1"/>
+    <col min="12" max="12" width="1.6640625" customWidth="1"/>
+    <col min="16" max="16" width="1.21875" customWidth="1"/>
+    <col min="20" max="20" width="1.33203125" customWidth="1"/>
+    <col min="24" max="24" width="1.21875" customWidth="1"/>
+    <col min="27" max="27" width="28.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="6"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -489,13 +554,68 @@
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -505,23 +625,49 @@
       <c r="C3" s="2">
         <v>0.1865</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="D3" s="2"/>
       <c r="E3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.51580000000000004</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.16589999999999999</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2">
@@ -530,31 +676,64 @@
       <c r="C4" s="2">
         <v>0.15959999999999999</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.51580000000000004</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0.16589999999999999</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0.69820000000000004</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0.13730000000000001</v>
+      </c>
+      <c r="H4" s="5"/>
       <c r="I4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.69410000000000005</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0.16189999999999999</v>
+      </c>
+      <c r="L4" s="2"/>
+      <c r="M4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0.69169999999999998</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0.12959999999999999</v>
+      </c>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0.71250000000000002</v>
+      </c>
+      <c r="S4" s="2">
+        <v>0.1467</v>
+      </c>
+      <c r="T4" s="2"/>
+      <c r="U4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="V4" s="2">
+        <v>0.74339999999999995</v>
+      </c>
+      <c r="W4" s="2">
+        <v>0.12230000000000001</v>
+      </c>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -564,84 +743,119 @@
       <c r="C5" s="2">
         <v>0.18060000000000001</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0.69820000000000004</v>
+      <c r="D5" s="2"/>
+      <c r="E5" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="F5" s="2">
-        <v>0.13730000000000001</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>1</v>
+        <v>0.19689999999999999</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.2029</v>
       </c>
       <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="I5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="5">
         <v>0.74329999999999996</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="5">
         <v>0.15529999999999999</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0.19689999999999999</v>
+      <c r="D6" s="2"/>
+      <c r="E6" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="F6" s="2">
-        <v>0.2029</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0.69410000000000005</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0.16189999999999999</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K6" s="2"/>
+        <v>0.64480000000000004</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.1472</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0.15529999999999999</v>
+      </c>
       <c r="L6" s="2"/>
       <c r="M6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="P6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="N6" s="5">
+        <v>0.8397</v>
+      </c>
+      <c r="O6" s="5">
+        <v>9.74E-2</v>
+      </c>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R6" s="2">
+        <v>0.77349999999999997</v>
+      </c>
+      <c r="S6" s="2">
+        <v>0.13220000000000001</v>
+      </c>
+      <c r="T6" s="2"/>
+      <c r="U6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V6" s="2">
+        <v>0.89949999999999997</v>
+      </c>
+      <c r="W6" s="2">
+        <v>8.7099999999999997E-2</v>
+      </c>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>0.8982</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>8.9300000000000004E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -651,45 +865,68 @@
       <c r="C7" s="2">
         <v>0.16450000000000001</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0.64480000000000004</v>
+      <c r="D7" s="2"/>
+      <c r="E7" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="F7" s="2">
-        <v>0.1472</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>3</v>
+        <v>0.64849999999999997</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.15160000000000001</v>
       </c>
       <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="3" t="s">
-        <v>2</v>
+      <c r="I7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0.71460000000000001</v>
       </c>
       <c r="K7" s="2">
-        <v>0.69169999999999998</v>
-      </c>
-      <c r="L7" s="2">
-        <v>0.12959999999999999</v>
-      </c>
+        <v>0.16039999999999999</v>
+      </c>
+      <c r="L7" s="2"/>
       <c r="M7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="1" t="s">
-        <v>0</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0.80569999999999997</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0.1012</v>
+      </c>
+      <c r="P7" s="2"/>
       <c r="Q7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="R7" s="2">
+        <v>0.72909999999999997</v>
+      </c>
+      <c r="S7" s="2">
+        <v>0.14419999999999999</v>
+      </c>
+      <c r="T7" s="2"/>
+      <c r="U7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V7" s="2">
+        <v>0.86619999999999997</v>
+      </c>
+      <c r="W7" s="2">
+        <v>9.0800000000000006E-2</v>
+      </c>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>0.88849999999999996</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>9.3100000000000002E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -699,93 +936,95 @@
       <c r="C8" s="2">
         <v>0.15579999999999999</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0.64849999999999997</v>
+      <c r="D8" s="2"/>
+      <c r="E8" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="F8" s="2">
-        <v>0.15160000000000001</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0.72699999999999998</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0.15529999999999999</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="3" t="s">
-        <v>2</v>
+        <v>0.68830000000000002</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.13769999999999999</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0.71779999999999999</v>
+      </c>
+      <c r="K8" s="5">
+        <v>0.15479999999999999</v>
+      </c>
+      <c r="L8" s="5"/>
+      <c r="M8" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="N8" s="2">
-        <v>0.71250000000000002</v>
+        <v>0.82469999999999999</v>
       </c>
       <c r="O8" s="2">
-        <v>0.1467</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+        <v>9.9900000000000003E-2</v>
+      </c>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R8" s="5">
+        <v>0.80249999999999999</v>
+      </c>
+      <c r="S8" s="5">
+        <v>0.1217</v>
+      </c>
+      <c r="T8" s="5"/>
+      <c r="U8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="V8" s="2">
+        <v>0.88239999999999996</v>
+      </c>
+      <c r="W8" s="2">
+        <v>8.8800000000000004E-2</v>
+      </c>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>0.87439999999999996</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>9.9099999999999994E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0.68830000000000002</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0.13769999999999999</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0.71460000000000001</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0.16039999999999999</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K9" s="2">
-        <v>0.8397</v>
-      </c>
-      <c r="L9" s="2">
-        <v>9.74E-2</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>0.74339999999999995</v>
-      </c>
-      <c r="R9" s="2">
-        <v>0.12230000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="1"/>
+      <c r="U9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="V9" s="5">
+        <v>0.92330000000000001</v>
+      </c>
+      <c r="W9" s="5">
+        <v>7.8E-2</v>
+      </c>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z9" s="5">
+        <v>0.93069999999999997</v>
+      </c>
+      <c r="AA9" s="5">
+        <v>7.2099999999999997E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>4</v>
       </c>
@@ -795,114 +1034,59 @@
       <c r="C10" s="4">
         <v>0.15970000000000001</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0.71779999999999999</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0.15479999999999999</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="2">
-        <v>0.80569999999999997</v>
-      </c>
-      <c r="L10" s="2">
-        <v>0.1012</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N10" s="2">
-        <v>0.77349999999999997</v>
-      </c>
-      <c r="O10" s="2">
-        <v>0.13220000000000001</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="D10" s="4"/>
+      <c r="U10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="V10" s="2">
+        <v>0.91480000000000006</v>
+      </c>
+      <c r="W10" s="2">
+        <v>7.9199999999999993E-2</v>
+      </c>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z10" s="2">
+        <v>0.92349999999999999</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>7.6899999999999996E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="5">
         <v>0.73549999999999993</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="5">
         <v>0.15770000000000001</v>
       </c>
-      <c r="J11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K11" s="2">
-        <v>0.82469999999999999</v>
-      </c>
-      <c r="L11" s="2">
-        <v>9.9900000000000003E-2</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N11" s="2">
-        <v>0.72909999999999997</v>
-      </c>
-      <c r="O11" s="2">
-        <v>0.14419999999999999</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q11" s="2">
-        <v>0.89949999999999997</v>
-      </c>
-      <c r="R11" s="2">
-        <v>8.7099999999999997E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="M12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N12" s="2">
-        <v>0.80249999999999999</v>
-      </c>
-      <c r="O12" s="2">
-        <v>0.1217</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q12" s="2">
-        <v>0.86619999999999997</v>
-      </c>
-      <c r="R12" s="2">
-        <v>9.0800000000000006E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+      <c r="D11" s="2"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="P13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q13" s="2">
-        <v>0.88239999999999996</v>
-      </c>
-      <c r="R13" s="2">
-        <v>8.8800000000000004E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="1"/>
+      <c r="M13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="1"/>
+      <c r="U13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -912,17 +1096,28 @@
       <c r="C14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q14" s="2">
-        <v>0.92330000000000001</v>
-      </c>
-      <c r="R14" s="2">
-        <v>7.8E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="D14" s="1"/>
+      <c r="M14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="1"/>
+      <c r="U14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
@@ -932,18 +1127,22 @@
       <c r="C15" s="2">
         <v>0.55149999999999999</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q15" s="2">
-        <v>0.91480000000000006</v>
-      </c>
-      <c r="R15" s="2">
-        <v>7.9199999999999993E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+      <c r="D15" s="2"/>
+      <c r="M15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="U15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="1"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B16" s="2">
@@ -952,13 +1151,29 @@
       <c r="C16" s="2">
         <v>0.45879999999999999</v>
       </c>
-      <c r="J16" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D16" s="2"/>
+      <c r="M16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N16" s="2">
+        <v>-0.41770000000000002</v>
+      </c>
+      <c r="O16" s="2">
+        <v>0.47560000000000002</v>
+      </c>
+      <c r="P16" s="2"/>
+      <c r="U16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="V16" s="2">
+        <v>-0.65920000000000001</v>
+      </c>
+      <c r="W16" s="2">
+        <v>0.88490000000000002</v>
+      </c>
+      <c r="X16" s="1"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
@@ -968,17 +1183,29 @@
       <c r="C17" s="2">
         <v>0.34210000000000002</v>
       </c>
-      <c r="J17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D17" s="2"/>
+      <c r="M17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="2">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="O17" s="2">
+        <v>0.42520000000000002</v>
+      </c>
+      <c r="P17" s="2"/>
+      <c r="U17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V17" s="2">
+        <v>0.23849999999999999</v>
+      </c>
+      <c r="W17" s="2">
+        <v>0.52410000000000001</v>
+      </c>
+      <c r="X17" s="2"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>4</v>
       </c>
@@ -988,33 +1215,61 @@
       <c r="C18" s="2">
         <v>0.317</v>
       </c>
-      <c r="J18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D18" s="2"/>
+      <c r="M18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N18" s="2">
+        <v>0.6905</v>
+      </c>
+      <c r="O18" s="2">
+        <v>0.37390000000000001</v>
+      </c>
+      <c r="P18" s="2"/>
+      <c r="U18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V18" s="2">
+        <v>0.67479999999999996</v>
+      </c>
+      <c r="W18" s="2">
+        <v>0.34460000000000002</v>
+      </c>
+      <c r="X18" s="2"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B19" s="2">
         <v>0.33789999999999998</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="5">
         <v>0.28170000000000001</v>
       </c>
-      <c r="J19" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="K19" s="2">
-        <v>-0.41770000000000002</v>
-      </c>
-      <c r="L19" s="2">
-        <v>0.47560000000000002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D19" s="2"/>
+      <c r="M19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N19" s="2">
+        <v>0.57430000000000003</v>
+      </c>
+      <c r="O19" s="2">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="P19" s="2"/>
+      <c r="U19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V19" s="2">
+        <v>0.58289999999999997</v>
+      </c>
+      <c r="W19" s="2">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="X19" s="2"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>6</v>
       </c>
@@ -1024,37 +1279,61 @@
       <c r="C20" s="2">
         <v>0.29189999999999999</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K20" s="2">
-        <v>0.45800000000000002</v>
-      </c>
-      <c r="L20" s="2">
-        <v>0.42520000000000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D20" s="2"/>
+      <c r="M20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N20" s="2">
+        <v>0.61519999999999997</v>
+      </c>
+      <c r="O20" s="2">
+        <v>0.39129999999999998</v>
+      </c>
+      <c r="P20" s="2"/>
+      <c r="U20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="V20" s="2">
+        <v>0.57350000000000001</v>
+      </c>
+      <c r="W20" s="2">
+        <v>0.41909999999999997</v>
+      </c>
+      <c r="X20" s="2"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="5">
         <v>0.4647</v>
       </c>
       <c r="C21" s="2">
         <v>0.30549999999999999</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K21" s="2">
-        <v>0.6905</v>
-      </c>
-      <c r="L21" s="2">
-        <v>0.37390000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D21" s="2"/>
+      <c r="M21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N21" s="2">
+        <v>0.7157</v>
+      </c>
+      <c r="O21" s="2">
+        <v>0.35060000000000002</v>
+      </c>
+      <c r="P21" s="2"/>
+      <c r="U21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="V21" s="5">
+        <v>0.74250000000000005</v>
+      </c>
+      <c r="W21" s="2">
+        <v>0.29010000000000002</v>
+      </c>
+      <c r="X21" s="2"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>15</v>
       </c>
@@ -1064,60 +1343,128 @@
       <c r="C22" s="2">
         <v>0.28710000000000002</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="D22" s="2"/>
+      <c r="M22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N22" s="5">
+        <v>0.73939999999999995</v>
+      </c>
+      <c r="O22" s="5">
+        <v>0.3281</v>
+      </c>
+      <c r="P22" s="2"/>
+      <c r="U22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="V22" s="2">
+        <v>0.73180000000000001</v>
+      </c>
+      <c r="W22" s="5">
+        <v>0.28820000000000001</v>
+      </c>
+      <c r="X22" s="2"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X23" s="2"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="M24" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="X24" s="2"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="M25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="M26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="M27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="M28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="M29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N29" s="2">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="O29" s="2">
+        <v>7.1400000000000005E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="M30" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K22" s="2">
-        <v>0.57430000000000003</v>
-      </c>
-      <c r="L22" s="2">
-        <v>0.45300000000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="J23" s="3" t="s">
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="M31" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K23" s="2">
-        <v>0.61519999999999997</v>
-      </c>
-      <c r="L23" s="2">
-        <v>0.39129999999999998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="J24" s="3" t="s">
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="M32" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K24" s="2">
-        <v>0.7157</v>
-      </c>
-      <c r="L24" s="2">
-        <v>0.35060000000000002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="J25" s="3" t="s">
+      <c r="N32" s="5">
+        <v>0.90149999999999997</v>
+      </c>
+      <c r="O32" s="5">
+        <v>5.7099999999999998E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M33" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K25" s="2">
-        <v>0.73939999999999995</v>
-      </c>
-      <c r="L25" s="2">
-        <v>0.3281</v>
-      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="J16:L16"/>
+  <mergeCells count="12">
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="U13:W13"/>
+    <mergeCell ref="M13:O13"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A13:C13"/>
-    <mergeCell ref="P6:R6"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="M5:O5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
